--- a/CashFlow/EPAM_cashflow.xlsx
+++ b/CashFlow/EPAM_cashflow.xlsx
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2428000.0</v>
+        <v>34000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1995000.0</v>
+        <v>32000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>31637000.0</v>
+        <v>51845000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>8882000.0</v>
+        <v>24130000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>-11071000.0</v>
+        <v>-3230000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>31098000.0</v>
